--- a/Notes/Metricas Occlusion.xlsx
+++ b/Notes/Metricas Occlusion.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Metricas</t>
   </si>
@@ -28,6 +28,21 @@
   </si>
   <si>
     <t>Con Occlusion</t>
+  </si>
+  <si>
+    <t>FrustumC</t>
+  </si>
+  <si>
+    <t>OcclusionC</t>
+  </si>
+  <si>
+    <t>Total meshes</t>
+  </si>
+  <si>
+    <t>% occlusion</t>
+  </si>
+  <si>
+    <t>% frustum</t>
   </si>
 </sst>
 </file>
@@ -199,46 +214,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>34</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>36</c:v>
@@ -326,49 +341,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -385,11 +400,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151872256"/>
-        <c:axId val="151874176"/>
+        <c:axId val="43189376"/>
+        <c:axId val="43190912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151872256"/>
+        <c:axId val="43189376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -399,7 +414,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151874176"/>
+        <c:crossAx val="43190912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -407,7 +422,392 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151874176"/>
+        <c:axId val="43190912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>FPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43189376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
+        <c:minorUnit val="2"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Culling</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> %</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% frustum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$3:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$G$3:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>27.61904761904762</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33.80952380952381</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.904761904761898</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.428571428571423</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.904761904761905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.571428571428577</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.714285714285712</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29.523809523809526</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49.047619047619044</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66.666666666666657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% occlusion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$3:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$H$3:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>93.80952380952381</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.38095238095238</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.904761904761898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.523809523809518</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92.857142857142861</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.952380952380949</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85.238095238095241</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.80952380952381</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93.80952380952381</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>87.61904761904762</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>93.80952380952381</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="43263872"/>
+        <c:axId val="74078464"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="43263872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74078464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74078464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -437,9 +837,10 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151872256"/>
+        <c:crossAx val="43263872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="2"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -463,16 +864,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -491,16 +892,57 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>14289</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="2 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A2:C17" totalsRowShown="0">
-  <autoFilter ref="A2:C17"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A2:H17" totalsRowShown="0">
+  <autoFilter ref="A2:H17"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="Posición escenario"/>
     <tableColumn id="2" name="Sin Occlusion"/>
     <tableColumn id="3" name="Con Occlusion"/>
+    <tableColumn id="4" name="FrustumC"/>
+    <tableColumn id="5" name="OcclusionC"/>
+    <tableColumn id="6" name="Total meshes"/>
+    <tableColumn id="7" name="% frustum">
+      <calculatedColumnFormula>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[FrustumC]])/Tabla1[[#This Row],[Total meshes]]*100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="% occlusion">
+      <calculatedColumnFormula>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[OcclusionC]])/Tabla1[[#This Row],[Total meshes]]*100</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -793,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,16 +1246,21 @@
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -823,30 +1270,79 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>152</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>210</v>
+      </c>
+      <c r="G3">
+        <f>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[FrustumC]])/Tabla1[[#This Row],[Total meshes]]*100</f>
+        <v>27.61904761904762</v>
+      </c>
+      <c r="H3">
+        <f>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[OcclusionC]])/Tabla1[[#This Row],[Total meshes]]*100</f>
+        <v>93.80952380952381</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>36</v>
       </c>
+      <c r="D4">
+        <v>180</v>
+      </c>
+      <c r="E4">
+        <v>37</v>
+      </c>
+      <c r="F4">
+        <v>210</v>
+      </c>
+      <c r="G4">
+        <f>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[FrustumC]])/Tabla1[[#This Row],[Total meshes]]*100</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="H4">
+        <f>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[OcclusionC]])/Tabla1[[#This Row],[Total meshes]]*100</f>
+        <v>82.38095238095238</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -854,131 +1350,335 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>139</v>
+      </c>
+      <c r="E5">
+        <v>38</v>
+      </c>
+      <c r="F5">
+        <v>210</v>
+      </c>
+      <c r="G5">
+        <f>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[FrustumC]])/Tabla1[[#This Row],[Total meshes]]*100</f>
+        <v>33.80952380952381</v>
+      </c>
+      <c r="H5">
+        <f>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[OcclusionC]])/Tabla1[[#This Row],[Total meshes]]*100</f>
+        <v>81.904761904761898</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C6">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="D6">
+        <v>59</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>210</v>
+      </c>
+      <c r="G6">
+        <f>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[FrustumC]])/Tabla1[[#This Row],[Total meshes]]*100</f>
+        <v>71.904761904761898</v>
+      </c>
+      <c r="H6">
+        <f>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[OcclusionC]])/Tabla1[[#This Row],[Total meshes]]*100</f>
+        <v>91.428571428571431</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C7">
-        <v>57</v>
+        <v>44</v>
+      </c>
+      <c r="D7">
+        <v>102</v>
+      </c>
+      <c r="E7">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <v>210</v>
+      </c>
+      <c r="G7">
+        <f>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[FrustumC]])/Tabla1[[#This Row],[Total meshes]]*100</f>
+        <v>51.428571428571423</v>
+      </c>
+      <c r="H7">
+        <f>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[OcclusionC]])/Tabla1[[#This Row],[Total meshes]]*100</f>
+        <v>86.666666666666671</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
+        <v>31</v>
+      </c>
+      <c r="C8">
         <v>38</v>
       </c>
-      <c r="C8">
-        <v>55</v>
+      <c r="D8">
+        <v>123</v>
+      </c>
+      <c r="E8">
+        <v>43</v>
+      </c>
+      <c r="F8">
+        <v>210</v>
+      </c>
+      <c r="G8">
+        <f>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[FrustumC]])/Tabla1[[#This Row],[Total meshes]]*100</f>
+        <v>41.428571428571431</v>
+      </c>
+      <c r="H8">
+        <f>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[OcclusionC]])/Tabla1[[#This Row],[Total meshes]]*100</f>
+        <v>79.523809523809518</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="D9">
+        <v>122</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>210</v>
+      </c>
+      <c r="G9">
+        <f>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[FrustumC]])/Tabla1[[#This Row],[Total meshes]]*100</f>
+        <v>41.904761904761905</v>
+      </c>
+      <c r="H9">
+        <f>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[OcclusionC]])/Tabla1[[#This Row],[Total meshes]]*100</f>
+        <v>92.857142857142861</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C10">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <v>129</v>
+      </c>
+      <c r="E10">
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <v>210</v>
+      </c>
+      <c r="G10">
+        <f>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[FrustumC]])/Tabla1[[#This Row],[Total meshes]]*100</f>
+        <v>38.571428571428577</v>
+      </c>
+      <c r="H10">
+        <f>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[OcclusionC]])/Tabla1[[#This Row],[Total meshes]]*100</f>
+        <v>86.666666666666671</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C11">
-        <v>49</v>
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <v>156</v>
+      </c>
+      <c r="E11">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>210</v>
+      </c>
+      <c r="G11">
+        <f>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[FrustumC]])/Tabla1[[#This Row],[Total meshes]]*100</f>
+        <v>25.714285714285712</v>
+      </c>
+      <c r="H11">
+        <f>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[OcclusionC]])/Tabla1[[#This Row],[Total meshes]]*100</f>
+        <v>90.952380952380949</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
+        <v>26</v>
+      </c>
+      <c r="C12">
         <v>34</v>
       </c>
-      <c r="C12">
-        <v>47</v>
+      <c r="D12">
+        <v>174</v>
+      </c>
+      <c r="E12">
+        <v>31</v>
+      </c>
+      <c r="F12">
+        <v>210</v>
+      </c>
+      <c r="G12">
+        <f>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[FrustumC]])/Tabla1[[#This Row],[Total meshes]]*100</f>
+        <v>17.142857142857142</v>
+      </c>
+      <c r="H12">
+        <f>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[OcclusionC]])/Tabla1[[#This Row],[Total meshes]]*100</f>
+        <v>85.238095238095241</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <v>127</v>
+      </c>
+      <c r="E13">
+        <v>34</v>
+      </c>
+      <c r="F13">
+        <v>210</v>
+      </c>
+      <c r="G13">
+        <f>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[FrustumC]])/Tabla1[[#This Row],[Total meshes]]*100</f>
+        <v>39.523809523809526</v>
+      </c>
+      <c r="H13">
+        <f>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[OcclusionC]])/Tabla1[[#This Row],[Total meshes]]*100</f>
+        <v>83.80952380952381</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>50</v>
+        <v>38</v>
+      </c>
+      <c r="D14">
+        <v>148</v>
+      </c>
+      <c r="E14">
+        <v>42</v>
+      </c>
+      <c r="F14">
+        <v>210</v>
+      </c>
+      <c r="G14">
+        <f>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[FrustumC]])/Tabla1[[#This Row],[Total meshes]]*100</f>
+        <v>29.523809523809526</v>
+      </c>
+      <c r="H14">
+        <f>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[OcclusionC]])/Tabla1[[#This Row],[Total meshes]]*100</f>
+        <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="C15">
         <v>36</v>
       </c>
-      <c r="C15">
-        <v>49</v>
+      <c r="D15">
+        <v>107</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>210</v>
+      </c>
+      <c r="G15">
+        <f>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[FrustumC]])/Tabla1[[#This Row],[Total meshes]]*100</f>
+        <v>49.047619047619044</v>
+      </c>
+      <c r="H15">
+        <f>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[OcclusionC]])/Tabla1[[#This Row],[Total meshes]]*100</f>
+        <v>93.80952380952381</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C16">
-        <v>55</v>
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>159</v>
+      </c>
+      <c r="E16">
+        <v>26</v>
+      </c>
+      <c r="F16">
+        <v>210</v>
+      </c>
+      <c r="G16">
+        <f>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[FrustumC]])/Tabla1[[#This Row],[Total meshes]]*100</f>
+        <v>24.285714285714285</v>
+      </c>
+      <c r="H16">
+        <f>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[OcclusionC]])/Tabla1[[#This Row],[Total meshes]]*100</f>
+        <v>87.61904761904762</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -986,7 +1686,24 @@
         <v>36</v>
       </c>
       <c r="C17">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <v>70</v>
+      </c>
+      <c r="E17">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <v>210</v>
+      </c>
+      <c r="G17">
+        <f>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[FrustumC]])/Tabla1[[#This Row],[Total meshes]]*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="H17">
+        <f>(Tabla1[[#This Row],[Total meshes]]-Tabla1[[#This Row],[OcclusionC]])/Tabla1[[#This Row],[Total meshes]]*100</f>
+        <v>93.80952380952381</v>
       </c>
     </row>
   </sheetData>

--- a/Notes/Metricas Occlusion.xlsx
+++ b/Notes/Metricas Occlusion.xlsx
@@ -400,11 +400,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="43189376"/>
-        <c:axId val="43190912"/>
+        <c:axId val="77372800"/>
+        <c:axId val="79180928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43189376"/>
+        <c:axId val="77372800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -414,7 +414,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43190912"/>
+        <c:crossAx val="79180928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -422,7 +422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43190912"/>
+        <c:axId val="79180928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -440,7 +440,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-ES"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>FPS</a:t>
                 </a:r>
               </a:p>
@@ -453,7 +453,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43189376"/>
+        <c:crossAx val="77372800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -501,14 +501,9 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-ES"/>
-              <a:t>Culling</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Discarded objects</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="es-ES" baseline="0"/>
-              <a:t> %</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -785,11 +780,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="43263872"/>
-        <c:axId val="74078464"/>
+        <c:axId val="79227136"/>
+        <c:axId val="79040512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43263872"/>
+        <c:axId val="79227136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,7 +794,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74078464"/>
+        <c:crossAx val="79040512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -807,7 +802,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74078464"/>
+        <c:axId val="79040512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -824,8 +819,8 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-ES"/>
-                  <a:t>FPS</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>% discarded objects</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -837,7 +832,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43263872"/>
+        <c:crossAx val="79227136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="2"/>
@@ -1238,7 +1233,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Notes/Metricas Occlusion.xlsx
+++ b/Notes/Metricas Occlusion.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -48,8 +48,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,17 +99,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="es-AR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -122,37 +112,31 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES"/>
-              <a:t>Occlusion performance</a:t>
+              <a:t>Occlusion Culling</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>performance</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sin Occlusion</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>No Occlusion Culling</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Hoja1!$A$3:$A$17</c:f>
@@ -261,25 +245,13 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Con Occlusion</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>With Occlusion Culling</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Hoja1!$A$3:$A$17</c:f>
@@ -388,46 +360,56 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="77372800"/>
-        <c:axId val="79180928"/>
+        <c:axId val="84849408"/>
+        <c:axId val="84850944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77372800"/>
+        <c:axId val="84849408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Selected</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-AR" baseline="0"/>
+                  <a:t> View Points</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79180928"/>
+        <c:crossAx val="84850944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79180928"/>
+        <c:axId val="84850944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -447,13 +429,11 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77372800"/>
+        <c:crossAx val="84849408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -461,17 +441,15 @@
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -479,17 +457,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="es-AR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -502,37 +470,23 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Discarded objects</a:t>
+              <a:t>Percentage of discarded objects</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$G$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>% frustum</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Frustum Culling</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Hoja1!$A$3:$A$17</c:f>
@@ -641,25 +595,13 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>% occlusion</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Occlusion Culling</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Hoja1!$A$3:$A$17</c:f>
@@ -768,45 +710,55 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="79227136"/>
-        <c:axId val="79040512"/>
+        <c:axId val="84905984"/>
+        <c:axId val="84907520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79227136"/>
+        <c:axId val="84905984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>Selected View</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-AR" baseline="0"/>
+                  <a:t> Points</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79040512"/>
+        <c:crossAx val="84907520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79040512"/>
+        <c:axId val="84907520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -820,36 +772,32 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>% discarded objects</a:t>
+                  <a:t>% Discarded Objects</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79227136"/>
+        <c:crossAx val="84905984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="2"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -859,16 +807,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -890,13 +838,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>581026</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>523876</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>14289</xdr:rowOff>
     </xdr:to>
@@ -1018,7 +966,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1053,7 +1000,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1229,14 +1175,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
@@ -1248,14 +1194,14 @@
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1281,7 +1227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1309,7 +1255,7 @@
         <v>93.80952380952381</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1337,7 +1283,7 @@
         <v>82.38095238095238</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1365,7 +1311,7 @@
         <v>81.904761904761898</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1393,7 +1339,7 @@
         <v>91.428571428571431</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1421,7 +1367,7 @@
         <v>86.666666666666671</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1449,7 +1395,7 @@
         <v>79.523809523809518</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1477,7 +1423,7 @@
         <v>92.857142857142861</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1505,7 +1451,7 @@
         <v>86.666666666666671</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1533,7 +1479,7 @@
         <v>90.952380952380949</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1561,7 +1507,7 @@
         <v>85.238095238095241</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1589,7 +1535,7 @@
         <v>83.80952380952381</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1617,7 +1563,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1645,7 +1591,7 @@
         <v>93.80952380952381</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1673,7 +1619,7 @@
         <v>87.61904761904762</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1714,24 +1660,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes/Metricas Occlusion.xlsx
+++ b/Notes/Metricas Occlusion.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -48,8 +48,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,38 +99,24 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-AR"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="129"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="29"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES"/>
-              <a:t>Occlusion Culling</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-ES" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="es-ES"/>
-              <a:t>performance</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -245,6 +231,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -360,17 +347,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="84849408"/>
-        <c:axId val="84850944"/>
+        <c:smooth val="0"/>
+        <c:axId val="76681600"/>
+        <c:axId val="76683520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84849408"/>
+        <c:axId val="76681600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -383,33 +380,32 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-AR"/>
-                  <a:t>Selected</a:t>
+                  <a:t>Selected View Points</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="es-AR" baseline="0"/>
-                  <a:t> View Points</a:t>
-                </a:r>
-                <a:endParaRPr lang="es-AR"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84850944"/>
+        <c:crossAx val="76683520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84850944"/>
+        <c:axId val="76683520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -429,11 +425,13 @@
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84849408"/>
+        <c:crossAx val="76681600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -443,9 +441,11 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -457,30 +457,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-AR"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="126"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="26"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Percentage of discarded objects</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -595,6 +589,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -710,17 +705,27 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="84905984"/>
-        <c:axId val="84907520"/>
+        <c:smooth val="0"/>
+        <c:axId val="76738944"/>
+        <c:axId val="76740864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84905984"/>
+        <c:axId val="76738944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -733,32 +738,31 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-AR"/>
-                  <a:t>Selected View</a:t>
+                  <a:t>Selected View Points</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="es-AR" baseline="0"/>
-                  <a:t> Points</a:t>
-                </a:r>
-                <a:endParaRPr lang="es-AR"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84907520"/>
+        <c:crossAx val="76740864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84907520"/>
+        <c:axId val="76740864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -772,17 +776,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>% Discarded Objects</a:t>
+                  <a:t>% discarded objects</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84905984"/>
+        <c:crossAx val="76738944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="2"/>
@@ -791,10 +797,19 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </a:scene3d>
+    <a:sp3d/>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
@@ -966,6 +981,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1000,6 +1016,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1175,14 +1192,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
@@ -1194,14 +1211,14 @@
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1227,7 +1244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1255,7 +1272,7 @@
         <v>93.80952380952381</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1283,7 +1300,7 @@
         <v>82.38095238095238</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1311,7 +1328,7 @@
         <v>81.904761904761898</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1339,7 +1356,7 @@
         <v>91.428571428571431</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1367,7 +1384,7 @@
         <v>86.666666666666671</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1395,7 +1412,7 @@
         <v>79.523809523809518</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1423,7 +1440,7 @@
         <v>92.857142857142861</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1451,7 +1468,7 @@
         <v>86.666666666666671</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1479,7 +1496,7 @@
         <v>90.952380952380949</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1507,7 +1524,7 @@
         <v>85.238095238095241</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1535,7 +1552,7 @@
         <v>83.80952380952381</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1563,7 +1580,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1591,7 +1608,7 @@
         <v>93.80952380952381</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1619,7 +1636,7 @@
         <v>87.61904761904762</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1660,24 +1677,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Notes/Metricas Occlusion.xlsx
+++ b/Notes/Metricas Occlusion.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="6675" windowHeight="4410"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -48,8 +48,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +89,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF860000"/>
+      <color rgb="FFBC0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -99,24 +105,14 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="129"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="29"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="es-AR"/>
+  <c:style val="3"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -231,7 +227,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -347,27 +342,17 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="76681600"/>
-        <c:axId val="76683520"/>
+        <c:axId val="88662784"/>
+        <c:axId val="88664704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76681600"/>
+        <c:axId val="88662784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -376,36 +361,51 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr>
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-AR"/>
-                  <a:t>Selected View Points</a:t>
+                  <a:rPr lang="es-AR">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Selected View Point</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76683520"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88664704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76683520"/>
+        <c:axId val="88664704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -415,23 +415,40 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr>
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>FPS</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76681600"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88662784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -441,15 +458,31 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr>
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -457,30 +490,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="126"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="26"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="es-AR"/>
+  <c:style val="3"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>Frustum Culling</c:v>
           </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Hoja1!$A$3:$A$17</c:f>
@@ -589,7 +616,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -597,6 +623,10 @@
           <c:tx>
             <c:v>Occlusion Culling</c:v>
           </c:tx>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
+          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Hoja1!$A$3:$A$17</c:f>
@@ -705,27 +735,17 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="76738944"/>
-        <c:axId val="76740864"/>
+        <c:axId val="88715264"/>
+        <c:axId val="88717184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76738944"/>
+        <c:axId val="88715264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -734,35 +754,50 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr>
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-AR"/>
-                  <a:t>Selected View Points</a:t>
+                  <a:rPr lang="es-AR">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Selected View Point</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76740864"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88717184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76740864"/>
+        <c:axId val="88717184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -772,23 +807,40 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr>
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>% discarded objects</a:t>
+                  <a:rPr lang="en-US">
+                    <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>% Discarded objects</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76738944"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88715264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="2"/>
@@ -797,22 +849,31 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr>
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:scene3d>
-      <a:camera prst="orthographicFront"/>
-      <a:lightRig rig="threePt" dir="t"/>
-    </a:scene3d>
-    <a:sp3d/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -823,15 +884,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>409574</xdr:colOff>
+      <xdr:colOff>129426</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
+      <xdr:rowOff>22130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>477370</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -981,7 +1042,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1016,7 +1076,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1192,14 +1251,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
@@ -1211,14 +1270,14 @@
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1244,7 +1303,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1272,7 +1331,7 @@
         <v>93.80952380952381</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1300,7 +1359,7 @@
         <v>82.38095238095238</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1328,7 +1387,7 @@
         <v>81.904761904761898</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1356,7 +1415,7 @@
         <v>91.428571428571431</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1384,7 +1443,7 @@
         <v>86.666666666666671</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1412,7 +1471,7 @@
         <v>79.523809523809518</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1440,7 +1499,7 @@
         <v>92.857142857142861</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1468,7 +1527,7 @@
         <v>86.666666666666671</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1496,7 +1555,7 @@
         <v>90.952380952380949</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1524,7 +1583,7 @@
         <v>85.238095238095241</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1552,7 +1611,7 @@
         <v>83.80952380952381</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1580,7 +1639,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1608,7 +1667,7 @@
         <v>93.80952380952381</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1636,7 +1695,7 @@
         <v>87.61904761904762</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1677,24 +1736,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
